--- a/每天进步一点点.xlsx
+++ b/每天进步一点点.xlsx
@@ -10,13 +10,14 @@
     <sheet name="日常记录" sheetId="1" r:id="rId1"/>
     <sheet name="最常用的extjs" sheetId="2" r:id="rId2"/>
     <sheet name="linux" sheetId="3" r:id="rId3"/>
+    <sheet name="DIV-CSS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <t>同心日服务器：</t>
@@ -1142,7 +1143,178 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t>:https://github.com/creary/bak/trunk</t>
+      <t>:https://github.com/creary/bak/trunk :sourceforget:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:https://svn.code.sf.net/p/litingbak/liting</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是块级元素所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独占一行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中所有的元素到不会和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>winISo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以把文件打包成镜像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>iso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式的</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1257,7 +1429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,9 +1448,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1571,41 +1749,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1025" width="33.625" style="1"/>
+    <col min="1" max="1025" width="33.625" style="6"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1620,10 +1802,10 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="21.95" customHeight="1"/>
   <cols>
     <col min="1" max="1025" width="33.625" style="3"/>
   </cols>
@@ -1699,6 +1881,28 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="33.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="33" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/每天进步一点点.xlsx
+++ b/每天进步一点点.xlsx
@@ -181,20 +181,6 @@
   </si>
   <si>
     <r>
-      <t>3.20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>张春阳阳历四月十九</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Url.Content</t>
     </r>
     <r>
@@ -1315,6 +1301,102 @@
         <charset val="134"/>
       </rPr>
       <t>格式的</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张春阳阳历四月十九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李小风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:4.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴历生日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:5.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1752,7 +1834,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1774,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.95" customHeight="1">
@@ -1784,10 +1866,10 @@
     </row>
     <row r="4" spans="1:2" ht="21.95" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1812,18 +1894,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21.95" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.95" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1848,31 +1930,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1898,11 +1980,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/每天进步一点点.xlsx
+++ b/每天进步一点点.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="日常记录" sheetId="1" r:id="rId1"/>
     <sheet name="最常用的extjs" sheetId="2" r:id="rId2"/>
     <sheet name="linux" sheetId="3" r:id="rId3"/>
     <sheet name="DIV-CSS" sheetId="4" r:id="rId4"/>
+    <sheet name="javascript" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <t>同心日服务器：</t>
@@ -1397,6 +1398,98 @@
         <charset val="134"/>
       </rPr>
       <t>号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>javascript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中数字相加会默认是字符串的相加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>1+1=11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会出现这种结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果要当成数字要使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>parseInt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来转型</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1833,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1971,7 +2064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="33" customHeight="1"/>
   <cols>
@@ -1988,4 +2083,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.625" defaultRowHeight="21.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="33.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.95" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21.95" customHeight="1">
+      <c r="B3" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/每天进步一点点.xlsx
+++ b/每天进步一点点.xlsx
@@ -139,49 +139,6 @@
   </si>
   <si>
     <r>
-      <t>我是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>农历的今年十月一国庆节：简聪妹</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Url.Content</t>
     </r>
     <r>
@@ -1490,6 +1447,59 @@
         <charset val="134"/>
       </rPr>
       <t>来转型</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>农历的今年十月一国庆节：简聪妹</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1604,7 +1614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,6 +1637,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,7 +1940,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1949,20 +1962,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
+      <c r="A3" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21.95" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1987,18 +2000,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21.95" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.95" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2023,31 +2036,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2088,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2113,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.95" customHeight="1">
@@ -2109,5 +2122,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>